--- a/Salary Profile.xlsx
+++ b/Salary Profile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\StaffSync\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A7E71A-E49E-45AE-B659-16A69218D5DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43FE2F0E-5B9B-4DEE-9C34-BAF636F38A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D4D36D59-D1A3-4A17-8C5E-53691B6D952D}"/>
   </bookViews>
@@ -1329,8 +1329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D362E222-46AB-4847-844D-9FA325A1FA54}">
   <dimension ref="A1:J138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="G111" sqref="G111"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
